--- a/thresholds/IGCSE/german-foreign-language/german-foreign-language-thresholds.xlsx
+++ b/thresholds/IGCSE/german-foreign-language/german-foreign-language-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -575,7 +575,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -616,20 +616,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
@@ -664,111 +664,111 @@
         <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E6" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G7" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H8" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -855,84 +855,84 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="G12" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I12" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -951,34 +951,34 @@
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E13" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -992,34 +992,34 @@
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E14" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I14" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -1033,73 +1033,237 @@
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E15" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90</v>
+      </c>
+      <c r="C16" t="n">
+        <v>78</v>
+      </c>
+      <c r="D16" t="n">
+        <v>69</v>
+      </c>
+      <c r="E16" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" t="n">
+        <v>51</v>
+      </c>
+      <c r="G16" t="n">
+        <v>42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>33</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>X 03,11,21,41</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>167</v>
+      </c>
+      <c r="D17" t="n">
+        <v>145</v>
+      </c>
+      <c r="E17" t="n">
+        <v>123</v>
+      </c>
+      <c r="F17" t="n">
+        <v>102</v>
+      </c>
+      <c r="G17" t="n">
+        <v>85</v>
+      </c>
+      <c r="H17" t="n">
+        <v>69</v>
+      </c>
+      <c r="I17" t="n">
+        <v>54</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>Y 03,12,22,42</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>200</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>168</v>
+      </c>
+      <c r="D18" t="n">
+        <v>146</v>
+      </c>
+      <c r="E18" t="n">
+        <v>124</v>
+      </c>
+      <c r="F18" t="n">
+        <v>102</v>
+      </c>
+      <c r="G18" t="n">
+        <v>85</v>
+      </c>
+      <c r="H18" t="n">
+        <v>69</v>
+      </c>
+      <c r="I18" t="n">
+        <v>53</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Z 03,13,23,43</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>167</v>
+      </c>
+      <c r="D19" t="n">
+        <v>145</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123</v>
+      </c>
+      <c r="F19" t="n">
+        <v>102</v>
+      </c>
+      <c r="G19" t="n">
+        <v>85</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69</v>
+      </c>
+      <c r="I19" t="n">
+        <v>54</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" t="n">
         <v>163</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>143</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E20" t="n">
         <v>123</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F20" t="n">
         <v>103</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G20" t="n">
         <v>86</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>70</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>55</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
